--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H2">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I2">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J2">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q2">
-        <v>14.26269989173333</v>
+        <v>14.26094257925333</v>
       </c>
       <c r="R2">
-        <v>128.3642990256</v>
+        <v>128.34848321328</v>
       </c>
       <c r="S2">
-        <v>0.3180952277769677</v>
+        <v>0.2189139854690178</v>
       </c>
       <c r="T2">
-        <v>0.3180952277769677</v>
+        <v>0.2189139854690178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H3">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I3">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J3">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N3">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q3">
-        <v>2.01144222822</v>
+        <v>5.848323657459334</v>
       </c>
       <c r="R3">
-        <v>18.10298005398</v>
+        <v>52.634912917134</v>
       </c>
       <c r="S3">
-        <v>0.04486038257852556</v>
+        <v>0.08977526086036577</v>
       </c>
       <c r="T3">
-        <v>0.04486038257852556</v>
+        <v>0.08977526086036577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>33.650088</v>
       </c>
       <c r="I4">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J4">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q4">
         <v>19.15572387285333</v>
@@ -694,10 +694,10 @@
         <v>172.40151485568</v>
       </c>
       <c r="S4">
-        <v>0.4272223628641085</v>
+        <v>0.2940518015724239</v>
       </c>
       <c r="T4">
-        <v>0.4272223628641085</v>
+        <v>0.2940518015724239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.650088</v>
       </c>
       <c r="I5">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J5">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N5">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q5">
-        <v>2.701496364816</v>
+        <v>7.855642954789333</v>
       </c>
       <c r="R5">
-        <v>24.313467283344</v>
+        <v>70.700786593104</v>
       </c>
       <c r="S5">
-        <v>0.06025038092562444</v>
+        <v>0.120588810879609</v>
       </c>
       <c r="T5">
-        <v>0.06025038092562444</v>
+        <v>0.120588810879609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H6">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I6">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J6">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.12336</v>
       </c>
       <c r="O6">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P6">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q6">
-        <v>5.877565840764444</v>
+        <v>12.78171184849778</v>
       </c>
       <c r="R6">
-        <v>52.89809256688</v>
+        <v>115.03540663648</v>
       </c>
       <c r="S6">
-        <v>0.1310849740290565</v>
+        <v>0.1962069103301667</v>
       </c>
       <c r="T6">
-        <v>0.1310849740290565</v>
+        <v>0.1962069103301667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H7">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I7">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J7">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N7">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O7">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P7">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q7">
-        <v>0.8289022570060001</v>
+        <v>5.241700355427112</v>
       </c>
       <c r="R7">
-        <v>7.460120313054</v>
+        <v>47.175303198844</v>
       </c>
       <c r="S7">
-        <v>0.01848667182571719</v>
+        <v>0.08046323088841686</v>
       </c>
       <c r="T7">
-        <v>0.01848667182571719</v>
+        <v>0.08046323088841686</v>
       </c>
     </row>
   </sheetData>
